--- a/Bestellliste.xlsx
+++ b/Bestellliste.xlsx
@@ -5,20 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\6.Semester\FE_Projekt\vorherige_Gruppe\Bestelliste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\git\Robot4Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEBE9AA-3E80-4630-89D9-DE3B69241995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D890A1A-64D1-4377-94D8-222ABD6078EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{7DDB2B81-BC44-477B-AD12-00F9E0683487}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DDB2B81-BC44-477B-AD12-00F9E0683487}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$F$25</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>Artikelnummer</t>
   </si>
@@ -159,18 +155,6 @@
     <t>https://www.stefansliposhop.de/akkus/sls-xtron/sls-xtron-50c/sls-xtron-2200mah-4s1p-14-8v-50c-100c::2148.html</t>
   </si>
   <si>
-    <t>EAN: 4064161197876</t>
-  </si>
-  <si>
-    <t>ESP 32 DevKitC-VIE Entwicklungsboard</t>
-  </si>
-  <si>
-    <t>Gehirn</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/espressif-esp32-devkitc-vie-entwicklungsboard-esp32-devkitc-vie-2490159.html</t>
-  </si>
-  <si>
     <t>RX-M3SX4,0</t>
   </si>
   <si>
@@ -309,9 +293,6 @@
     <t>Riemen für Basisbewegung</t>
   </si>
   <si>
-    <t>Gesamtsumme (Stand 15.03.2025):</t>
-  </si>
-  <si>
     <t>Adapter</t>
   </si>
   <si>
@@ -358,9 +339,6 @@
   </si>
   <si>
     <t>https://www.mouser.de/ProductDetail/KYOCERA-AVX/12065D106MAT2A?qs=sGAEpiMZZMsh%252B1woXyUXjzY5digEXfcQltPVVXJdVOE%3D</t>
-  </si>
-  <si>
-    <t>www.roboter-bausatz.de/p/mks-tmc2209-schrittmotortreiber</t>
   </si>
   <si>
     <t>667-EEU-FS1H331B</t>
@@ -468,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -520,15 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="2" tint="-9.9887081514938816E-2"/>
       </left>
@@ -562,7 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -593,37 +562,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -962,894 +920,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23693128-7615-4FF7-9414-B34D106215C4}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="159.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="31">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F2" s="31">
-        <f t="shared" ref="F2:F16" si="0">C2*E2</f>
-        <v>39.979999999999997</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="31">
-        <v>12.99</v>
-      </c>
-      <c r="F3" s="31">
-        <f t="shared" si="0"/>
-        <v>25.98</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="31">
-        <v>29.99</v>
-      </c>
-      <c r="F4" s="31">
-        <f t="shared" si="0"/>
-        <v>29.99</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="31">
-        <v>1.05</v>
-      </c>
-      <c r="F5" s="31">
-        <f t="shared" si="0"/>
-        <v>1.05</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0.95</v>
-      </c>
-      <c r="F6" s="31">
-        <f t="shared" si="0"/>
-        <v>2.8499999999999996</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3.99</v>
-      </c>
-      <c r="F7" s="31">
-        <f t="shared" si="0"/>
-        <v>3.99</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="31">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="31">
-        <v>48.4</v>
-      </c>
-      <c r="F9" s="31">
-        <f>C9*E9</f>
-        <v>48.4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="31">
-        <v>20.99</v>
-      </c>
-      <c r="F10" s="31">
-        <f t="shared" si="0"/>
-        <v>20.99</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="31">
-        <v>7.55</v>
-      </c>
-      <c r="F11" s="31">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="31">
-        <v>5.65</v>
-      </c>
-      <c r="F12" s="31">
-        <f t="shared" si="0"/>
-        <v>28.25</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="31">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="F13" s="31">
-        <f>C13*E13</f>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="31">
-        <v>6.99</v>
-      </c>
-      <c r="F14" s="31">
-        <f>C14*E14</f>
-        <v>6.99</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="14">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="31">
-        <v>20.99</v>
-      </c>
-      <c r="F15" s="31">
-        <f>C15*E15</f>
-        <v>20.99</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="31">
-        <v>3.44</v>
-      </c>
-      <c r="F16" s="31">
-        <f t="shared" si="0"/>
-        <v>6.88</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="31">
-        <v>6.9</v>
-      </c>
-      <c r="F17" s="31">
-        <f t="shared" ref="F17:F20" si="1">C17*E17</f>
-        <v>6.9</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="31">
-        <v>5.5</v>
-      </c>
-      <c r="F18" s="31">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="31">
-        <v>3.99</v>
-      </c>
-      <c r="F19" s="31">
-        <f t="shared" si="1"/>
-        <v>3.99</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="32">
-        <v>1.49</v>
-      </c>
-      <c r="F20" s="32">
-        <f t="shared" si="1"/>
-        <v>1.49</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="31">
-        <v>3.19</v>
-      </c>
-      <c r="F23" s="31">
-        <f t="shared" ref="F23:F24" si="2">C23*E23</f>
-        <v>9.57</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="27">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="33">
-        <v>3.79</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" si="2"/>
-        <v>3.79</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="34">
-        <f>SUM(F2:F24)</f>
-        <v>289.28000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0.76</v>
-      </c>
-      <c r="F27" s="29">
-        <v>1.52</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="29">
-        <v>3.29</v>
-      </c>
-      <c r="F28" s="29">
-        <v>3.29</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2">
-        <v>5</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0.78</v>
-      </c>
-      <c r="F29" s="29">
-        <v>3.92</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1.31</v>
-      </c>
-      <c r="F30" s="29">
-        <v>6.55</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="29">
-        <v>5.95</v>
-      </c>
-      <c r="F31" s="29">
-        <v>11.9</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0.89</v>
-      </c>
-      <c r="F32" s="29">
-        <v>4.46</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="2">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="29">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="F33" s="29">
-        <v>3.47</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="29">
-        <v>0.64</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0.64</v>
-      </c>
-      <c r="G34" s="35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="29">
-        <v>14.53</v>
-      </c>
-      <c r="F35" s="29">
-        <v>14.53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="29">
-        <v>35.909999999999997</v>
-      </c>
-      <c r="F36" s="29">
-        <v>35.909999999999997</v>
-      </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="4"/>
-      <c r="E38" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="34">
-        <f>SUM(F2:F36)-F25</f>
-        <v>375.46999999999986</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39"/>
-      <c r="F39" s="31">
-        <f>SUM(F2:F36)-F25-F31-F10</f>
-        <v>342.57999999999987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1" xr:uid="{9C3F6E6F-6D91-42C7-9DF0-31831D929E71}"/>
-    <hyperlink ref="G2" r:id="rId2" location="productTechData" xr:uid="{359CCCA4-D324-4850-8163-8A0A271227F0}"/>
-    <hyperlink ref="G3" r:id="rId3" location="productTechData" xr:uid="{A009B345-E6E6-4E28-9547-02E1252DBD86}"/>
-    <hyperlink ref="G4" r:id="rId4" xr:uid="{BBA7FB50-33AB-4016-8F69-B62621E6BB02}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{AB16E57D-0B57-409B-B025-754FF1448D30}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{E1959298-C324-4A81-8302-27698A980E4F}"/>
-    <hyperlink ref="G15" r:id="rId7" location="productDownloads" xr:uid="{53F6F5A3-CDD8-4E98-87D5-8D51952DA7CF}"/>
-    <hyperlink ref="G18" r:id="rId8" xr:uid="{D31C7275-292F-4D28-B4CC-48ECB81116AF}"/>
-    <hyperlink ref="G13" r:id="rId9" xr:uid="{389D7CA0-F565-4301-BA12-14F3AC173565}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{B72EEC0E-C4E4-47DE-937C-D37B69540479}"/>
-    <hyperlink ref="G5" r:id="rId11" xr:uid="{A46FF572-420D-4C4E-B1E6-8CB3A2FCC688}"/>
-    <hyperlink ref="G6" r:id="rId12" xr:uid="{0946D049-569B-4C0F-AF83-904BC368C8D1}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{3A4AC1F8-DA51-4867-8C82-2C9EC39100F6}"/>
-    <hyperlink ref="G7" r:id="rId14" xr:uid="{CD339374-A500-409D-B6E4-D8E0A28FBCAF}"/>
-    <hyperlink ref="G19" r:id="rId15" xr:uid="{6261F0D6-3032-4D6F-8F4B-8D37AFEDB569}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{D4574043-9680-4D9B-AD7A-893BC5261DC4}"/>
-    <hyperlink ref="G16" r:id="rId17" xr:uid="{37C4253F-70F4-4BC8-A543-5F6440EC1945}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{E5312514-2A76-49E5-AEAA-349966F303FA}"/>
-    <hyperlink ref="G20" r:id="rId19" xr:uid="{24446911-94BD-4F24-BB27-2FD29A9728D3}"/>
-    <hyperlink ref="G23" r:id="rId20" xr:uid="{B947A857-B8AA-44B8-A3EC-0AA7F28BA3C3}"/>
-    <hyperlink ref="G24" r:id="rId21" xr:uid="{548BDCF2-E639-4CF9-A864-9EB76615875D}"/>
-    <hyperlink ref="G25" r:id="rId22" display="https://www.conrad.de/de/p/fischer-elektronik-stiftleiste-standard-anzahl-reihen-1-polzahl-je-reihe-20-sl-10-smd-062-20-z-1-st-739077.html" xr:uid="{489E4392-45B5-40A2-8027-75FBCBB861D7}"/>
-    <hyperlink ref="G27" r:id="rId23" xr:uid="{489E4392-45B5-40A2-8027-75FBCBB861D7}"/>
-    <hyperlink ref="G29" r:id="rId24" xr:uid="{9A92C470-69D7-4851-897F-EDD336AF2C2A}"/>
-    <hyperlink ref="G30" r:id="rId25" xr:uid="{675344F3-D456-40F1-A0BE-6EEEFAB77E59}"/>
-    <hyperlink ref="G28" r:id="rId26" xr:uid="{FE8B3C5E-614F-4100-92F4-A66C49799BE4}"/>
-    <hyperlink ref="G31" r:id="rId27" xr:uid="{47B5C705-F799-4943-8461-1CA9F25176AB}"/>
-    <hyperlink ref="G32" r:id="rId28" xr:uid="{B7CBE059-1E8B-4F1A-BC2F-913C353EA84B}"/>
-    <hyperlink ref="G33" r:id="rId29" xr:uid="{26370067-BB6A-4B87-9E4A-D9E66F77DC01}"/>
-    <hyperlink ref="G34" r:id="rId30" xr:uid="{DCD8CDA6-F3B2-4A63-B262-BB85B4599FBE}"/>
-    <hyperlink ref="G38" r:id="rId31" display="https://www.conrad.de/de/p/fischer-elektronik-stiftleiste-standard-anzahl-reihen-1-polzahl-je-reihe-20-sl-10-smd-062-20-z-1-st-739077.html" xr:uid="{92ACBE45-38F1-44A0-8C70-E1C9628ED954}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId32"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962B635B-B5F3-4D14-937A-75EF4982F019}">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -1904,10 +974,10 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="28">
         <v>19.989999999999998</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="28">
         <f t="shared" ref="F2:F19" si="0">C2*E2</f>
         <v>39.979999999999997</v>
       </c>
@@ -1928,10 +998,10 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="28">
         <v>12.99</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <f t="shared" si="0"/>
         <v>25.98</v>
       </c>
@@ -1952,10 +1022,10 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <v>29.99</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
@@ -1976,10 +1046,10 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="28">
         <v>1.05</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
@@ -2000,10 +1070,10 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>0.95</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>2.8499999999999996</v>
       </c>
@@ -2024,10 +1094,10 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="28">
         <v>3.99</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
@@ -2048,10 +1118,10 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="28">
         <v>0.7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
@@ -2072,10 +1142,10 @@
       <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>48.4</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <f>C9*E9</f>
         <v>48.4</v>
       </c>
@@ -2085,513 +1155,513 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="31">
+        <v>41</v>
+      </c>
+      <c r="E10" s="28">
         <v>7.55</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="31">
+        <v>45</v>
+      </c>
+      <c r="E11" s="28">
         <v>5.65</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>28.25</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="31">
+        <v>49</v>
+      </c>
+      <c r="E12" s="28">
         <v>9.9499999999999993</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f>C12*E12</f>
         <v>9.9499999999999993</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="31">
+        <v>53</v>
+      </c>
+      <c r="E13" s="28">
         <v>6.99</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <f>C13*E13</f>
         <v>6.99</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="14">
         <v>1</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="31">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28">
         <v>20.99</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <f>C14*E14</f>
         <v>20.99</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="19"/>
+      <c r="G14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="13">
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="31">
+        <v>61</v>
+      </c>
+      <c r="E15" s="28">
         <v>3.44</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <f t="shared" si="0"/>
         <v>6.88</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="19"/>
+      <c r="G15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="31">
+        <v>85</v>
+      </c>
+      <c r="E16" s="28">
         <v>6.9</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <f t="shared" si="0"/>
         <v>6.9</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="19"/>
+      <c r="G16" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="31">
+        <v>68</v>
+      </c>
+      <c r="E17" s="28">
         <v>5.5</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>75</v>
+      <c r="A18" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="31">
+        <v>72</v>
+      </c>
+      <c r="E18" s="28">
         <v>3.99</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>3.99</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="A19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="23">
         <v>1</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="32">
+      <c r="D19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="29">
         <v>1.49</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="29">
         <f t="shared" si="0"/>
         <v>1.49</v>
       </c>
-      <c r="G19" s="26" t="s">
-        <v>81</v>
+      <c r="G19" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>91</v>
+      <c r="A21" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="29">
+        <v>88</v>
+      </c>
+      <c r="E21" s="26">
         <v>0.76</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="26">
         <v>1.52</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>94</v>
+      <c r="G21" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="29">
+        <v>92</v>
+      </c>
+      <c r="E22" s="26">
         <v>3.29</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="26">
         <v>3.29</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>98</v>
+      <c r="G22" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="29">
+        <v>96</v>
+      </c>
+      <c r="E23" s="26">
         <v>0.78</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="26">
         <v>3.92</v>
       </c>
-      <c r="G23" s="30" t="s">
-        <v>102</v>
+      <c r="G23" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="29">
+        <v>96</v>
+      </c>
+      <c r="E24" s="26">
         <v>1.31</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="26">
         <v>6.55</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>105</v>
+      <c r="G24" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="29">
+        <v>96</v>
+      </c>
+      <c r="E25" s="26">
         <v>0.89</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="26">
         <v>4.46</v>
       </c>
-      <c r="G25" s="30" t="s">
-        <v>109</v>
+      <c r="G25" s="27" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="29">
+        <v>96</v>
+      </c>
+      <c r="E26" s="26">
         <v>0.69299999999999995</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="26">
         <v>3.47</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>112</v>
+      <c r="G26" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="29">
+        <v>109</v>
+      </c>
+      <c r="E27" s="26">
         <v>0.64</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="26">
         <v>0.64</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>116</v>
+      <c r="G27" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="29">
+        <v>115</v>
+      </c>
+      <c r="E28" s="26">
         <v>14.53</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="26">
         <v>14.53</v>
       </c>
-      <c r="G28" s="30" t="s">
-        <v>123</v>
+      <c r="G28" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="29">
+        <v>114</v>
+      </c>
+      <c r="E29" s="26">
         <v>35.909999999999997</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="26">
         <v>35.909999999999997</v>
       </c>
-      <c r="G29" s="35" t="s">
-        <v>122</v>
+      <c r="G29" s="31" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="31">
+        <v>83</v>
+      </c>
+      <c r="E31" s="28">
         <v>3.19</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="28">
         <f t="shared" ref="F31:F32" si="1">C31*E31</f>
         <v>9.57</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="37">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="38">
+      <c r="D32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="28">
         <v>3.79</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="28">
         <f t="shared" si="1"/>
         <v>3.79</v>
       </c>
-      <c r="G32" s="21" t="s">
-        <v>85</v>
+      <c r="G32" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="3:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
-      <c r="E33" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="34">
+      <c r="E33" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="30">
         <f>SUM(F2:F32)</f>
         <v>342.58000000000004</v>
       </c>
